--- a/pearson_tables/tp_netherlands_cumul-3-4.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-3-4.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6413344406548552</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6514951295271921</v>
+        <v>0.7844137198105535</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6955910721972874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7452539704795658</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5281649956325397</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.744133437571513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.69520180962606</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6965234706792667</v>
+        <v>-0.7404339077487648</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7415021386446323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6117868504822174</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5960676204433232</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6752668612833678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6218665756981281</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6428809207918584</v>
+        <v>-0.6919333072105328</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7120944020809288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5612048065283721</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7520147525681879</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.63827607678762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7004565250044837</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7374749469326838</v>
+        <v>0.7757279151612556</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7360896827961495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6694210354029539</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5274539369922749</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6762043071744667</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
